--- a/数据整理/stocks/A股/科创板/688339-亿华通.xlsx
+++ b/数据整理/stocks/A股/科创板/688339-亿华通.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.49</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.08</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5198</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002823</t>
+          <t>001449</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商盛达灵活配置混合A</t>
+          <t>华商双驱优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4978</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002824</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商盛达灵活配置混合C</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>7.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002289</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商改革创新股票</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.49</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001449</t>
+          <t>001780</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商双驱优选灵活配置混合</t>
+          <t>诺安改革趋势灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.08</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001743</t>
+          <t>002289</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安优选回报灵活配置混合</t>
+          <t>华商改革创新股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001780</t>
+          <t>002823</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>诺安改革趋势灵活配置混合</t>
+          <t>招商盛达灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>009668</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>鹏华安庆混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>35.62</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.12</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009668</t>
+          <t>001743</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华安庆混合C</t>
+          <t>诺安优选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>35.62</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>005405</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>中金金序量化蓝筹混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.32</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -782,15 +892,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>89.32</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2.69</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005405</t>
+          <t>002824</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中金金序量化蓝筹混合A</t>
+          <t>招商盛达灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>62.23</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -838,15 +968,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>62.23</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1.35</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -861,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,15 +1022,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -912,15 +1062,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.36</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4373</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002823</t>
+          <t>001449</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商盛达灵活配置混合A</t>
+          <t>华商双驱优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2862</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002824</t>
+          <t>002823</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商盛达灵活配置混合C</t>
+          <t>招商盛达灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>86.18</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.24</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001449</t>
+          <t>002824</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商双驱优选灵活配置混合</t>
+          <t>招商盛达灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.61</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688339-亿华通.xlsx
+++ b/数据整理/stocks/A股/科创板/688339-亿华通.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7147</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5394</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688339-亿华通.xlsx
+++ b/数据整理/stocks/A股/科创板/688339-亿华通.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1524,4 +1525,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2580</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6762</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688339-亿华通.xlsx
+++ b/数据整理/stocks/A股/科创板/688339-亿华通.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1657,4 +1658,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688339-亿华通.xlsx
+++ b/数据整理/stocks/A股/科创板/688339-亿华通.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.93</v>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.25</v>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7796</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.73</v>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5633</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1832,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688339-亿华通.xlsx
+++ b/数据整理/stocks/A股/科创板/688339-亿华通.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1913,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1924,17 +1925,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1944,14 +1965,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.95</v>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4826</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1960,14 +2003,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4442</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>2.93</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="4">
@@ -1976,14 +2109,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>4.25</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="5">
@@ -1992,14 +2125,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.73</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="6">
@@ -2008,13 +2141,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688339-亿华通.xlsx
+++ b/数据整理/stocks/A股/科创板/688339-亿华通.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.93</v>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.95</v>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.93</v>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2125,14 +2212,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.25</v>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2141,14 +2250,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.73</v>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2157,13 +2288,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688339-亿华通.xlsx
+++ b/数据整理/stocks/A股/科创板/688339-亿华通.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.47</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.93</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>3.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.93</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>4.25</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.73</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.44</v>
       </c>
     </row>
@@ -600,6 +617,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +1108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,7 +1240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1299,7 +1486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1431,7 +1618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1753,7 +1940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1961,7 +2148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688339-亿华通.xlsx
+++ b/数据整理/stocks/A股/科创板/688339-亿华通.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.47</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.93</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>3.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2.93</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>4.25</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.73</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>13</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.44</v>
       </c>
     </row>
@@ -616,7 +633,651 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5198</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4978</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002823</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商盛达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005405</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002824</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商盛达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005406</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -786,7 +1447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1108,7 +1769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1240,7 +1901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1486,7 +2147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1618,7 +2279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1940,7 +2601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2146,554 +2807,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320022</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安研究精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.74</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5198</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001449</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华商双驱优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4978</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003165</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2079</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0815</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001780</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安改革趋势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0632</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002289</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华商改革创新股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002823</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商盛达灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001743</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>诺安优选回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005405</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中金金序量化蓝筹混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>62.23</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003166</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002824</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商盛达灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005406</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中金金序量化蓝筹混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>62.23</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>